--- a/lmc_tests/across_horizons/lmc_grid_H.xlsx
+++ b/lmc_tests/across_horizons/lmc_grid_H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,201 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.81842140692373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.9817521407467484</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.266678895529016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3302906434634116</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.345918643415537</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.49991913757163</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.9085945063497044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2868702054828594</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3599413790222669</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3741950278376162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.51045264025339</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8646088558302204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2930110895884289</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3680911033545236</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3849613067652024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.88885123868773</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8481068832765533</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2972045391250636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3821608733606929</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3891857528760915</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.68981172572075</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8567111455657078</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3001734291296793</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3841694116614146</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.394223431330622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.29169253488805</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.6131014526647148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3310774331553605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4642281409042475</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.433902092977312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.67120809030016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.8574184559616663</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2964320271547589</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3639643494242859</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3935067589334377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.25603871204286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.8278093203620845</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.304065234906052</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3834261678552287</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4035065761966576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.47381085838332</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.8168240603583768</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3055125822495552</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3887490832150734</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4028296647740654</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>14.8850707781946</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>-0.7980215263043748</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D11" t="n">
         <v>0.3083741011690757</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E11" t="n">
         <v>0.4014115847339328</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F11" t="n">
         <v>0.4042405551535886</v>
       </c>
     </row>

--- a/lmc_tests/across_horizons/lmc_grid_H.xlsx
+++ b/lmc_tests/across_horizons/lmc_grid_H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,202 +462,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>10.81842140692373</v>
+        <v>14.55839427421055</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9817521407467484</v>
+        <v>-0.8188970292159102</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266678895529016</v>
+        <v>0.305810898903398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3302906434634116</v>
+        <v>0.3988071075247967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.345918643415537</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12.49991913757163</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.9085945063497044</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2868702054828594</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3599413790222669</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3741950278376162</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.51045264025339</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.8646088558302204</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2930110895884289</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3680911033545236</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3849613067652024</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13.88885123868773</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.8481068832765533</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2972045391250636</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3821608733606929</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3891857528760915</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.68981172572075</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.8567111455657078</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3001734291296793</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3841694116614146</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.394223431330622</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>19.29169253488805</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0.6131014526647148</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3310774331553605</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.4642281409042475</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.433902092977312</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13.67120809030016</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.8574184559616663</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2964320271547589</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3639643494242859</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3935067589334377</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14.25603871204286</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.8278093203620845</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.304065234906052</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3834261678552287</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4035065761966576</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.47381085838332</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-0.8168240603583768</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.3055125822495552</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3887490832150734</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4028296647740654</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14.8850707781946</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.7980215263043748</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.3083741011690757</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4014115847339328</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4042405551535886</v>
+        <v>0.4022296247783388</v>
       </c>
     </row>
   </sheetData>

--- a/lmc_tests/across_horizons/lmc_grid_H.xlsx
+++ b/lmc_tests/across_horizons/lmc_grid_H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,22 +462,202 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.81842140692373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.9817521407467484</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.266678895529016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3302906434634116</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.345918643415537</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.49991913757163</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.9085945063497044</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2868702054828594</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3599413790222669</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3741950278376162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.51045264025339</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8646088558302204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2930110895884289</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3680911033545236</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3849613067652024</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.88885123868773</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8481068832765533</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2972045391250636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3821608733606929</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3891857528760915</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.68981172572075</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.8567111455657078</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3001734291296793</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3841694116614146</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.394223431330622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>14.55839427421055</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.8188970292159102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.305810898903398</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3988071075247967</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4022296247783388</v>
+      <c r="B7" t="n">
+        <v>19.29169253488805</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.6131014526647148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3310774331553605</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4642281409042475</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.433902092977312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13.67120809030016</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.8574184559616663</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2964320271547589</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3639643494242859</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3935067589334377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.25603871204286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.8278093203620845</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.304065234906052</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3834261678552287</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4035065761966576</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.47381085838332</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.8168240603583768</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3055125822495552</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3887490832150734</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4028296647740654</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.8850707781946</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.7980215263043748</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3083741011690757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4014115847339328</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4042405551535886</v>
       </c>
     </row>
   </sheetData>
